--- a/raw_data/KEEN ONE/Byrnes/2018/NW Appledore/NW Appledore_Kelp_2018.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2018/NW Appledore/NW Appledore_Kelp_2018.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jebyrnes/Dropbox (Byrnes Lab)/Byrnes Lab Shared Folder/KEEN Data Processing/Monitoring/raw_data/KEEN ONE/Byrnes/2018/NW Appledore/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82650A22-3F05-134C-BDC3-855E3217BF6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
     <sheet name="Allowed Codes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -150,13 +156,13 @@
     <t>Larus Ledge</t>
   </si>
   <si>
-    <t>Sandpiper</t>
+    <t>Sandpiper Beach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="00"/>
@@ -303,6 +309,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -627,14 +641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O66"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -651,7 +665,7 @@
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -737,7 +751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -778,7 +792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -819,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -860,7 +874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -901,7 +915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -942,7 +956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -983,7 +997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -1024,7 +1038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -1065,7 +1079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -1106,7 +1120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -1147,7 +1161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -1188,7 +1202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -1229,7 +1243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -1270,7 +1284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -1311,7 +1325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -1352,7 +1366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -1393,7 +1407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -1434,7 +1448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1475,7 +1489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1516,7 +1530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1557,7 +1571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1598,7 +1612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1639,7 +1653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1680,7 +1694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1721,7 +1735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1762,7 +1776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1803,7 +1817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -1844,7 +1858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -1885,7 +1899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -1926,7 +1940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -1967,7 +1981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2008,7 +2022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2049,7 +2063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2090,7 +2104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2131,7 +2145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2172,7 +2186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2213,7 +2227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2254,7 +2268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2295,7 +2309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2336,7 +2350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2377,7 +2391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2418,7 +2432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2459,7 +2473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2500,7 +2514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2541,7 +2555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2582,7 +2596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2623,7 +2637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2664,7 +2678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -2705,7 +2719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -2746,7 +2760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -2787,7 +2801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -2828,7 +2842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -2869,7 +2883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -2910,7 +2924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -2951,7 +2965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -2992,7 +3006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3033,7 +3047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3074,7 +3088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3115,7 +3129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3156,7 +3170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3197,7 +3211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3238,7 +3252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3279,7 +3293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3320,7 +3334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3367,7 +3381,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Allowed Codes'!$A:$A</xm:f>
           </x14:formula1>
@@ -3383,16 +3397,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="11" t="s">
         <v>14</v>
@@ -3400,7 +3414,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -3410,7 +3424,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -3420,7 +3434,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
@@ -3430,7 +3444,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
